--- a/Spotify_RestApi_Framework/src/main/resources/data/Data.xlsx
+++ b/Spotify_RestApi_Framework/src/main/resources/data/Data.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\Spotify_Api_Framework\Spotify_Api_Framework\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RestAssured\Spotify_RestApi_Framework\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20F23CD2-489A-42AF-9E20-3FE0BBD436EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{24B747CE-A2F1-4CD0-AF1E-BF2D0790DA35}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotify_Data" sheetId="3" r:id="rId1"/>
-    <sheet name="endToEndScript" sheetId="5" r:id="rId2"/>
+    <sheet name="sheet" sheetId="5" r:id="rId2"/>
     <sheet name="Spotify" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>key</t>
   </si>
@@ -201,13 +201,44 @@
     <t>BQCiNA4AUNXoELssvVoHlbwk99B-GWhjvU6LPZFLDbiHPAcrzE-rhTEk69JG0w5eyx9QeVDfCOxZZjvAxshjc8EkWCFDlDHPwOqQ_w7okBzf-fllNH_vbeocEOm0E1YccaJjjWQTvsxMkMA-aJLKaWcfHGzvpP8mkR2YNs3Wk9HqCXqVNAQcucMTMDWuqsFEGE8AMRBuHiyMiEUqZAslmLhr-eL-1vTysWSsIKGKO8DdsIAqTmsPDVmy6bRze9hW6r9kTyzsA4OBVYD-2vMZiILxBwbZIBzeSYaYwdHVpgJr4unagptoklulKE0rBslVx3RaPz4sdiCq4zJds3Vc</t>
   </si>
   <si>
-    <t>script001</t>
+    <t>testCase</t>
+  </si>
+  <si>
+    <t>endpoints</t>
+  </si>
+  <si>
+    <t>querryParamKey</t>
+  </si>
+  <si>
+    <t>querryParamValue</t>
+  </si>
+  <si>
+    <t>pathParamValue</t>
+  </si>
+  <si>
+    <t>pathParamKey</t>
+  </si>
+  <si>
+    <t>/search</t>
+  </si>
+  <si>
+    <t>q,type</t>
+  </si>
+  <si>
+    <t>/browse/categories</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>BQA4Uv8AgPD8WEDfcpgUfOujQPqH4K7NR-ZEl1s0pIksnWYL6NXnGEeHmR5oyfb67XLQGDs7aGH0MwUtTF9QUT4bBoVOze4CN0ixWmzIo4p5Gxw7srSeL6hT4rL866r_LzCP43rvvqHkfFftueSz9RZSr319OFbsLEVphbEBc-g6fzWzFXJvk6y5ANYYX6qCU_l1Q-rGchfq7mmd8zg6NUitzIP0LK35N-1izQFMSkfA0-NkQpZj83i191BHrHKIm67ucg2hl39J7YV1FbHkCs6yW2D2MbuKTqgGlFAC21tycyJW3m0q7hkOVzuIQRcTgqamNKNY3PlNOgivFzzl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,8 +660,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="84" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="84.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,76 +1110,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180C2496-00FB-4970-B839-9AB9C2E50BFB}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
